--- a/biology/Zoologie/Cryptocreagris_magna/Cryptocreagris_magna.xlsx
+++ b/biology/Zoologie/Cryptocreagris_magna/Cryptocreagris_magna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocreagris magna est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis[1]. Elle se rencontre dans le comté de Siskiyou sur le mont Shasta.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis. Elle se rencontre dans le comté de Siskiyou sur le mont Shasta.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 6,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 6,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ideobisium magnum par Banks en 1909. Elle est placée dans le genre Microcreagris par Chamberlin en 1930[3] puis dans le genre Cryptocreagris par Ćurčić en 1984[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ideobisium magnum par Banks en 1909. Elle est placée dans le genre Microcreagris par Chamberlin en 1930 puis dans le genre Cryptocreagris par Ćurčić en 1984.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Banks, 1909 : New Pseudoscorpionida. Canadian Entomologist, vol. 41, p. 303-307 (texte intégral).</t>
         </is>
